--- a/medicine/Enfance/Alain_Boudet_(poète)/Alain_Boudet_(poète).xlsx
+++ b/medicine/Enfance/Alain_Boudet_(poète)/Alain_Boudet_(poète).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alain_Boudet_(po%C3%A8te)</t>
+          <t>Alain_Boudet_(poète)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Boudet, né le 1er août 1950 au Mans (Sarthe) et mort le 24 août 2021 à Louplande[1], est un poète, écrivain pour la jeunesse et professeur de lettres français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Boudet, né le 1er août 1950 au Mans (Sarthe) et mort le 24 août 2021 à Louplande, est un poète, écrivain pour la jeunesse et professeur de lettres français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alain_Boudet_(po%C3%A8te)</t>
+          <t>Alain_Boudet_(poète)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Boudet « suit des études de lettres qu’il termine par un mémoire sur le regard dans l’œuvre de Paul Eluard[2] ». Il a été professeur de lettres, puis professeur documentaliste à l'Éducation nationale. Il fut coordonnateur académique en poésie, lecture et écriture dans l'académie de Nantes[2]. Plusieurs de ses livres ont été sélectionnés pour les écoles et les collèges par le Ministère de l'Éducation nationale, entre 1991 et 2001, dans le cadre de l'opération 100 livres pour les écoles.
-Alain Boudet a fondé en 1984 l'association Donner à voir, devenue maison d'édition de poésie contemporaine[3], et Les Amis des printemps poétiques, qui organise un festival de poésie à La Suze-sur-Sarthe depuis 1984[4]. il s'efforce de faire connaître et apprécier la poésie par des animations d'ateliers d'écriture et des rencontres avec des lecteurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Boudet « suit des études de lettres qu’il termine par un mémoire sur le regard dans l’œuvre de Paul Eluard ». Il a été professeur de lettres, puis professeur documentaliste à l'Éducation nationale. Il fut coordonnateur académique en poésie, lecture et écriture dans l'académie de Nantes. Plusieurs de ses livres ont été sélectionnés pour les écoles et les collèges par le Ministère de l'Éducation nationale, entre 1991 et 2001, dans le cadre de l'opération 100 livres pour les écoles.
+Alain Boudet a fondé en 1984 l'association Donner à voir, devenue maison d'édition de poésie contemporaine, et Les Amis des printemps poétiques, qui organise un festival de poésie à La Suze-sur-Sarthe depuis 1984. il s'efforce de faire connaître et apprécier la poésie par des animations d'ateliers d'écriture et des rencontres avec des lecteurs.
 Il a conçu deux céderoms de poésie contemporaine : Le Promenoir vert, publié par le CRDP de Poitiers et qui propose 600 poèmes contemporains de 150 poètes, et Le Petit Promenoir, publié par le CRDP de Grenoble, qui propose 150 poèmes de 50 poètes.
-Il administre un site consacré à la poésie et à ses publics : La Toile de l'un[5].
+Il administre un site consacré à la poésie et à ses publics : La Toile de l'un.
 Il indique en 2016 : 
-« Si je suis convaincu d’une chose, après quelques décennies de partage de la poésie avec des publics très variés (...), c’est que la poésie peut parler à tous, mais que peu le savent. Trop peu. Et qu’il y a nécessité pour ceux qui le peuvent ouvrent des portes vers les poèmes, proposent des voies, conçoivent des ponts qui permettent à chacune et chacun, quel que soit son âge, de découvrir que la poésie est une parole faite pour elle, pour lui. Pour eux aussi[2] »
+« Si je suis convaincu d’une chose, après quelques décennies de partage de la poésie avec des publics très variés (...), c’est que la poésie peut parler à tous, mais que peu le savent. Trop peu. Et qu’il y a nécessité pour ceux qui le peuvent ouvrent des portes vers les poèmes, proposent des voies, conçoivent des ponts qui permettent à chacune et chacun, quel que soit son âge, de découvrir que la poésie est une parole faite pour elle, pour lui. Pour eux aussi »
 .
-Il meurt le 24 août 2021, à l'âge de 71 ans[2].
+Il meurt le 24 août 2021, à l'âge de 71 ans.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alain_Boudet_(po%C3%A8te)</t>
+          <t>Alain_Boudet_(poète)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mots de saison, éditions Magnard
 Drôles d'oiseaux. 17 poèmes à chanter, 19 poèmes à lire, éditions Didier jeunesse
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alain_Boudet_(po%C3%A8te)</t>
+          <t>Alain_Boudet_(poète)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,11 +626,47 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix Joël Sadeler 2019[6] pour Cherchez la petite bête , illustrations de Solenn Larnicol
-Décoration
-Alain Boudet a été fait Chevalier des Palmes Académiques à la promotion du 1er janvier 2010.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Joël Sadeler 2019 pour Cherchez la petite bête , illustrations de Solenn Larnicol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alain_Boudet_(poète)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Boudet_(po%C3%A8te)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Boudet a été fait Chevalier des Palmes Académiques à la promotion du 1er janvier 2010.
 </t>
         </is>
       </c>
